--- a/실무_엑셀_예제_파일/Chapter01/01-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-001.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE4C52E-7E1A-4925-B767-4184BD833609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF317B-4142-4AB1-AEDF-1508D0022A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14736" xr2:uid="{A7D92796-5875-4734-904D-FF261B778167}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A7D92796-5875-4734-904D-FF261B778167}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>문자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +94,34 @@
   <si>
     <t>1학년1반</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고발생</t>
+  </si>
+  <si>
+    <t>사고발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고접수</t>
+  </si>
+  <si>
+    <t>상담사배정</t>
+  </si>
+  <si>
+    <t>사고조사</t>
+  </si>
+  <si>
+    <t>손해내역조사</t>
+  </si>
+  <si>
+    <t>보고서작성</t>
+  </si>
+  <si>
+    <t>보고서심사</t>
+  </si>
+  <si>
+    <t>지급완료</t>
   </si>
 </sst>
 </file>
@@ -503,80 +523,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BA0B83-C8E9-45DE-B475-3740F539FF82}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="1.796875" customWidth="1"/>
-    <col min="4" max="5" width="11.296875" customWidth="1"/>
-    <col min="6" max="6" width="1.796875" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" customWidth="1"/>
-    <col min="9" max="9" width="1.796875" customWidth="1"/>
-    <col min="10" max="11" width="11.296875" customWidth="1"/>
-    <col min="12" max="12" width="1.796875" customWidth="1"/>
-    <col min="13" max="14" width="11.296875" customWidth="1"/>
+    <col min="1" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="1.83203125" customWidth="1"/>
+    <col min="10" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="1.83203125" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -610,7 +630,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -622,6 +645,28 @@
       </c>
       <c r="H4" s="1">
         <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44929</v>
       </c>
     </row>
   </sheetData>
@@ -635,4 +680,100 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555CCD27-57C1-41D5-8B1F-F9F0E3DD5882}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>